--- a/bin/resource/excel/map.xlsx
+++ b/bin/resource/excel/map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opensource\ark_new\bin\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ark_new\bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,34 @@
     <author>yangpengbo</author>
   </authors>
   <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>NickYang:
+0表示主城
+其他&gt;0的值表示副本</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -64,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>RelivePos</t>
   </si>
@@ -559,6 +587,22 @@
   </si>
   <si>
     <t>野外图5</t>
+  </si>
+  <si>
+    <t>instance_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -996,26 +1040,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.75" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="27.25" customWidth="1"/>
+    <col min="5" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1032,25 +1076,28 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1067,25 +1114,28 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1102,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>40</v>
@@ -1111,16 +1161,19 @@
         <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>45</v>
@@ -1136,8 +1189,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1154,25 +1208,28 @@
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1189,25 +1246,28 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>8</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1224,25 +1284,28 @@
         <v>10</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1259,25 +1322,28 @@
         <v>10</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>200</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
       </c>
       <c r="J8">
         <v>500</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1294,25 +1360,28 @@
         <v>10</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>200</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>13</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1329,25 +1398,28 @@
         <v>10</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>200</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>16</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
       </c>
       <c r="J10">
         <v>500</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1364,21 +1436,24 @@
         <v>10</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>200</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>18</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>500</v>
+      </c>
+      <c r="L11" t="s">
         <v>9</v>
       </c>
     </row>

--- a/bin/resource/excel/map.xlsx
+++ b/bin/resource/excel/map.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ark_new\bin\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ARK\bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F33026-DD3A-4AEF-97A3-948048F96C7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yangpengbo</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,8 +85,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -286,22 +287,6 @@
   </si>
   <si>
     <r>
-      <t>uint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>n</t>
     </r>
     <r>
@@ -603,12 +588,15 @@
   <si>
     <t>副本类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,82 +1027,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.75" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.77734375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1126,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -1135,51 +1123,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1191,27 +1179,27 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -1220,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -1229,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1228,7 @@
         <v>10000001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1267,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1266,7 @@
         <v>10000001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1305,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1304,7 @@
         <v>10000001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1343,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1342,7 @@
         <v>10000001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1381,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1380,7 @@
         <v>10000001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1419,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +1418,7 @@
         <v>10000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>10</v>
